--- a/template Excel/HR/Employee.xlsx
+++ b/template Excel/HR/Employee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD53083D-4016-4B2A-8C9C-47DF2D89B20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0689BAB9-7201-4A9A-81F0-CAD2A073B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11835" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,30 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
-    <t xml:space="preserve"> FullName</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DateOfBirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PhoneNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Email</t>
-  </si>
-  <si>
     <t>HireDate</t>
   </si>
   <si>
-    <t xml:space="preserve">DepartmentId </t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
@@ -177,6 +156,27 @@
   </si>
   <si>
     <t>Probation</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>DepartmentId</t>
   </si>
 </sst>
 </file>
@@ -552,14 +552,14 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -572,37 +572,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -610,22 +610,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
         <v>32918</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>987654321</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>800</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -645,22 +645,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
         <v>33746</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>912345678</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -672,7 +672,7 @@
         <v>850</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -680,22 +680,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
         <v>32450</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>901234567</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -707,7 +707,7 @@
         <v>700</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -715,22 +715,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
         <v>34897</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>981122334</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -742,7 +742,7 @@
         <v>700</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -750,22 +750,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
         <v>33491</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>976543210</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -777,7 +777,7 @@
         <v>700</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -785,22 +785,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
         <v>32132</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>965432109</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -812,7 +812,7 @@
         <v>700</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -820,22 +820,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
         <v>34429</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>954321098</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -847,7 +847,7 @@
         <v>700</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -855,22 +855,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
         <v>33114</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>943210987</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -882,7 +882,7 @@
         <v>700</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -890,22 +890,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
         <v>34047</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>932109876</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -917,7 +917,7 @@
         <v>700</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -925,22 +925,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1">
         <v>35246</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>921098765</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -952,7 +952,7 @@
         <v>700</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/template Excel/HR/Employee.xlsx
+++ b/template Excel/HR/Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0689BAB9-7201-4A9A-81F0-CAD2A073B5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1FA05-8341-482A-826F-69C9C68E5998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="21600" windowHeight="11835" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="80">
   <si>
     <t>HireDate</t>
   </si>
@@ -177,16 +177,123 @@
   </si>
   <si>
     <t>DepartmentId</t>
+  </si>
+  <si>
+    <t>nguyen.a1@example.com</t>
+  </si>
+  <si>
+    <t>tran.b1@example.com</t>
+  </si>
+  <si>
+    <t>le.c1@example.com</t>
+  </si>
+  <si>
+    <t>pham.d1@example.com</t>
+  </si>
+  <si>
+    <t>vu.e1@example.com</t>
+  </si>
+  <si>
+    <t>do.f1@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.g1@example.com</t>
+  </si>
+  <si>
+    <t>hoang.h1@example.com</t>
+  </si>
+  <si>
+    <t>ly.i1@example.com</t>
+  </si>
+  <si>
+    <t>bui.k1@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.l1@example.com</t>
+  </si>
+  <si>
+    <t>tran.m1@example.com</t>
+  </si>
+  <si>
+    <t>le.n1@example.com</t>
+  </si>
+  <si>
+    <t>pham.o1@example.com</t>
+  </si>
+  <si>
+    <t>vu.p1@example.com</t>
+  </si>
+  <si>
+    <t>do.q1@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.r1@example.com</t>
+  </si>
+  <si>
+    <t>hoang.s1@example.com</t>
+  </si>
+  <si>
+    <t>ly.t1@example.com</t>
+  </si>
+  <si>
+    <t>bui.u1@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.v1@example.com</t>
+  </si>
+  <si>
+    <t>tran.w1@example.com</t>
+  </si>
+  <si>
+    <t>le.x1@example.com</t>
+  </si>
+  <si>
+    <t>pham.y1@example.com</t>
+  </si>
+  <si>
+    <t>vu.z1@example.com</t>
+  </si>
+  <si>
+    <t>do.a2@example.com</t>
+  </si>
+  <si>
+    <t>nguyen.b2@example.com</t>
+  </si>
+  <si>
+    <t>hoang.c2@example.com</t>
+  </si>
+  <si>
+    <t>ly.d2@example.com</t>
+  </si>
+  <si>
+    <t>bui.e2@example.com</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -209,14 +316,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -549,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAB972D-657D-4C77-99C5-B859FDD68ABB}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +677,7 @@
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -663,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>45352</v>
@@ -698,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1">
         <v>45352</v>
@@ -733,7 +843,7 @@
         <v>17</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>45413</v>
@@ -768,7 +878,7 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>45444</v>
@@ -803,7 +913,7 @@
         <v>23</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>45352</v>
@@ -873,7 +983,7 @@
         <v>29</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>45536</v>
@@ -908,7 +1018,7 @@
         <v>32</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>45352</v>
@@ -943,7 +1053,7 @@
         <v>35</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <v>45611</v>
@@ -955,7 +1065,1125 @@
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>32918</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f>F11+1</f>
+        <v>921098766</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45323</v>
+      </c>
+      <c r="J12">
+        <v>800</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>33746</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13:F41" si="0">F12+1</f>
+        <v>921098767</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J13">
+        <v>850</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>32450</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>921098768</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J14">
+        <v>700</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>34897</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>921098769</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45413</v>
+      </c>
+      <c r="J15">
+        <v>700</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>33491</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>921098770</v>
+      </c>
+      <c r="G16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45444</v>
+      </c>
+      <c r="J16">
+        <v>700</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1">
+        <v>32132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>921098771</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J17">
+        <v>700</v>
+      </c>
+      <c r="K17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1">
+        <v>34429</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>921098772</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>45505</v>
+      </c>
+      <c r="J18">
+        <v>700</v>
+      </c>
+      <c r="K18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1">
+        <v>33114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>921098773</v>
+      </c>
+      <c r="G19" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>45536</v>
+      </c>
+      <c r="J19">
+        <v>700</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>34047</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>921098774</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J20">
+        <v>700</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1">
+        <v>35246</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>921098775</v>
+      </c>
+      <c r="G21" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45611</v>
+      </c>
+      <c r="J21">
+        <v>700</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>32918</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>921098776</v>
+      </c>
+      <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22" s="1">
+        <v>45323</v>
+      </c>
+      <c r="J22">
+        <v>800</v>
+      </c>
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
+        <v>33746</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>921098777</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J23">
+        <v>850</v>
+      </c>
+      <c r="K23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <v>32450</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>921098778</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J24">
+        <v>700</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1">
+        <v>34897</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>921098779</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>45413</v>
+      </c>
+      <c r="J25">
+        <v>700</v>
+      </c>
+      <c r="K25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>33491</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>921098780</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45444</v>
+      </c>
+      <c r="J26">
+        <v>700</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1">
+        <v>32132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>921098781</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J27">
+        <v>700</v>
+      </c>
+      <c r="K27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="1">
+        <v>34429</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>921098782</v>
+      </c>
+      <c r="G28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28" s="1">
+        <v>45505</v>
+      </c>
+      <c r="J28">
+        <v>700</v>
+      </c>
+      <c r="K28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1">
+        <v>33114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>921098783</v>
+      </c>
+      <c r="G29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1">
+        <v>45536</v>
+      </c>
+      <c r="J29">
+        <v>700</v>
+      </c>
+      <c r="K29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>34047</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>921098784</v>
+      </c>
+      <c r="G30" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J30">
+        <v>700</v>
+      </c>
+      <c r="K30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <v>35246</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>921098785</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1">
+        <v>45611</v>
+      </c>
+      <c r="J31">
+        <v>700</v>
+      </c>
+      <c r="K31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>32918</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>921098786</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32">
+        <v>4</v>
+      </c>
+      <c r="I32" s="1">
+        <v>45323</v>
+      </c>
+      <c r="J32">
+        <v>800</v>
+      </c>
+      <c r="K32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1">
+        <v>33746</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>921098787</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J33">
+        <v>850</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="1">
+        <v>32450</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>921098788</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J34">
+        <v>700</v>
+      </c>
+      <c r="K34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>34897</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>921098789</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>45413</v>
+      </c>
+      <c r="J35">
+        <v>700</v>
+      </c>
+      <c r="K35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1">
+        <v>33491</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>921098790</v>
+      </c>
+      <c r="G36" t="s">
+        <v>71</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>45444</v>
+      </c>
+      <c r="J36">
+        <v>700</v>
+      </c>
+      <c r="K36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="1">
+        <v>32132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>921098791</v>
+      </c>
+      <c r="G37" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J37">
+        <v>700</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="1">
+        <v>34429</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>921098792</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38" s="1">
+        <v>45505</v>
+      </c>
+      <c r="J38">
+        <v>700</v>
+      </c>
+      <c r="K38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="1">
+        <v>33114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>921098793</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1">
+        <v>45536</v>
+      </c>
+      <c r="J39">
+        <v>700</v>
+      </c>
+      <c r="K39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1">
+        <v>34047</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>921098794</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>45352</v>
+      </c>
+      <c r="J40">
+        <v>700</v>
+      </c>
+      <c r="K40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="1">
+        <v>35246</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>921098795</v>
+      </c>
+      <c r="G41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45611</v>
+      </c>
+      <c r="J41">
+        <v>700</v>
+      </c>
+      <c r="K41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1">
+        <v>35246</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42">
+        <v>328</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+      <c r="I42" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J42">
+        <v>1000</v>
+      </c>
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G42" r:id="rId1" xr:uid="{4C6C4023-18A3-4E08-AC20-6C0C0B33A2E7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/template Excel/HR/Employee.xlsx
+++ b/template Excel/HR/Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1FA05-8341-482A-826F-69C9C68E5998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B173E12C-78C7-4259-BF08-AC0012F1AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="84">
   <si>
     <t>HireDate</t>
   </si>
@@ -276,6 +276,18 @@
   </si>
   <si>
     <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>abcdef@gmail.com</t>
+  </si>
+  <si>
+    <t>fhs</t>
+  </si>
+  <si>
+    <t>abcdefs@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -659,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAB972D-657D-4C77-99C5-B859FDD68ABB}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2180,9 +2192,81 @@
         <v>39</v>
       </c>
     </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="1">
+        <v>35246</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43">
+        <v>456</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+      <c r="I43" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J43">
+        <v>1000</v>
+      </c>
+      <c r="K43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1">
+        <v>35246</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44">
+        <v>456</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J44">
+        <v>1000</v>
+      </c>
+      <c r="K44" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G42" r:id="rId1" xr:uid="{4C6C4023-18A3-4E08-AC20-6C0C0B33A2E7}"/>
+    <hyperlink ref="G43" r:id="rId2" xr:uid="{DA997B6D-FF52-492B-8691-B54A7BD54877}"/>
+    <hyperlink ref="G44" r:id="rId3" xr:uid="{21FE4545-4380-4D6A-B328-F1212E927FAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template Excel/HR/Employee.xlsx
+++ b/template Excel/HR/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B173E12C-78C7-4259-BF08-AC0012F1AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2C0A98-08D1-43AF-AF03-74E77629FEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
   </bookViews>

--- a/template Excel/HR/Employee.xlsx
+++ b/template Excel/HR/Employee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE2C0A98-08D1-43AF-AF03-74E77629FEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C96B91A-7AB4-49AB-A2B0-A109692181E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="84">
   <si>
     <t>HireDate</t>
   </si>
@@ -671,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAB972D-657D-4C77-99C5-B859FDD68ABB}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,11 +2262,47 @@
         <v>39</v>
       </c>
     </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1">
+        <v>35246</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+      <c r="I45" s="1">
+        <v>45527</v>
+      </c>
+      <c r="J45">
+        <v>1000</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G42" r:id="rId1" xr:uid="{4C6C4023-18A3-4E08-AC20-6C0C0B33A2E7}"/>
     <hyperlink ref="G43" r:id="rId2" xr:uid="{DA997B6D-FF52-492B-8691-B54A7BD54877}"/>
     <hyperlink ref="G44" r:id="rId3" xr:uid="{21FE4545-4380-4D6A-B328-F1212E927FAA}"/>
+    <hyperlink ref="G45" r:id="rId4" xr:uid="{07107982-E17F-4069-9B65-DAAA69F86DC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template Excel/HR/Employee.xlsx
+++ b/template Excel/HR/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C96B91A-7AB4-49AB-A2B0-A109692181E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48B605A-6A2E-40D9-93FA-C65237319AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{3961F9DE-4206-40BE-B32F-3CC7B35D6A5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="84">
   <si>
     <t>HireDate</t>
   </si>
@@ -671,23 +671,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAB972D-657D-4C77-99C5-B859FDD68ABB}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.140625" customWidth="1"/>
   </cols>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>45323</v>
+        <v>44927</v>
       </c>
       <c r="J2">
         <v>800</v>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1">
-        <v>45352</v>
+        <v>44942</v>
       </c>
       <c r="J3">
         <v>850</v>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
-        <v>45352</v>
+        <v>44957</v>
       </c>
       <c r="J4">
         <v>700</v>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1">
-        <v>45413</v>
+        <v>44972</v>
       </c>
       <c r="J5">
         <v>700</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>45444</v>
+        <v>44987</v>
       </c>
       <c r="J6">
         <v>700</v>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>45352</v>
+        <v>45002</v>
       </c>
       <c r="J7">
         <v>700</v>
@@ -963,7 +963,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>45505</v>
+        <v>45017</v>
       </c>
       <c r="J8">
         <v>700</v>
@@ -998,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>45536</v>
+        <v>45032</v>
       </c>
       <c r="J9">
         <v>700</v>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>45352</v>
+        <v>45047</v>
       </c>
       <c r="J10">
         <v>700</v>
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>45611</v>
+        <v>45062</v>
       </c>
       <c r="J11">
         <v>700</v>
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="1">
-        <v>45323</v>
+        <v>45077</v>
       </c>
       <c r="J12">
         <v>800</v>
@@ -1140,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <v>45352</v>
+        <v>45092</v>
       </c>
       <c r="J13">
         <v>850</v>
@@ -1176,7 +1176,7 @@
         <v>2</v>
       </c>
       <c r="I14" s="1">
-        <v>45352</v>
+        <v>45107</v>
       </c>
       <c r="J14">
         <v>700</v>
@@ -1212,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="I15" s="1">
-        <v>45413</v>
+        <v>45122</v>
       </c>
       <c r="J15">
         <v>700</v>
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="I16" s="1">
-        <v>45444</v>
+        <v>45137</v>
       </c>
       <c r="J16">
         <v>700</v>
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="I17" s="1">
-        <v>45352</v>
+        <v>45152</v>
       </c>
       <c r="J17">
         <v>700</v>
@@ -1320,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="1">
-        <v>45505</v>
+        <v>45167</v>
       </c>
       <c r="J18">
         <v>700</v>
@@ -1356,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>45536</v>
+        <v>45182</v>
       </c>
       <c r="J19">
         <v>700</v>
@@ -1392,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="1">
-        <v>45352</v>
+        <v>45197</v>
       </c>
       <c r="J20">
         <v>700</v>
@@ -1428,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="1">
-        <v>45611</v>
+        <v>45212</v>
       </c>
       <c r="J21">
         <v>700</v>
@@ -1464,7 +1464,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>45323</v>
+        <v>45227</v>
       </c>
       <c r="J22">
         <v>800</v>
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="1">
-        <v>45352</v>
+        <v>45242</v>
       </c>
       <c r="J23">
         <v>850</v>
@@ -1536,7 +1536,7 @@
         <v>3</v>
       </c>
       <c r="I24" s="1">
-        <v>45352</v>
+        <v>45257</v>
       </c>
       <c r="J24">
         <v>700</v>
@@ -1572,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="I25" s="1">
-        <v>45413</v>
+        <v>45272</v>
       </c>
       <c r="J25">
         <v>700</v>
@@ -1608,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="1">
-        <v>45444</v>
+        <v>45287</v>
       </c>
       <c r="J26">
         <v>700</v>
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="I27" s="1">
-        <v>45352</v>
+        <v>45302</v>
       </c>
       <c r="J27">
         <v>700</v>
@@ -1680,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="1">
-        <v>45505</v>
+        <v>45317</v>
       </c>
       <c r="J28">
         <v>700</v>
@@ -1716,7 +1716,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="1">
-        <v>45536</v>
+        <v>45332</v>
       </c>
       <c r="J29">
         <v>700</v>
@@ -1752,7 +1752,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="1">
-        <v>45352</v>
+        <v>45347</v>
       </c>
       <c r="J30">
         <v>700</v>
@@ -1788,7 +1788,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="1">
-        <v>45611</v>
+        <v>45362</v>
       </c>
       <c r="J31">
         <v>700</v>
@@ -1824,7 +1824,7 @@
         <v>4</v>
       </c>
       <c r="I32" s="1">
-        <v>45323</v>
+        <v>45377</v>
       </c>
       <c r="J32">
         <v>800</v>
@@ -1860,7 +1860,7 @@
         <v>4</v>
       </c>
       <c r="I33" s="1">
-        <v>45352</v>
+        <v>45392</v>
       </c>
       <c r="J33">
         <v>850</v>
@@ -1896,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="I34" s="1">
-        <v>45352</v>
+        <v>45407</v>
       </c>
       <c r="J34">
         <v>700</v>
@@ -1932,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="1">
-        <v>45413</v>
+        <v>45422</v>
       </c>
       <c r="J35">
         <v>700</v>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="I36" s="1">
-        <v>45444</v>
+        <v>45437</v>
       </c>
       <c r="J36">
         <v>700</v>
@@ -2004,7 +2004,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="1">
-        <v>45352</v>
+        <v>45452</v>
       </c>
       <c r="J37">
         <v>700</v>
@@ -2040,7 +2040,7 @@
         <v>4</v>
       </c>
       <c r="I38" s="1">
-        <v>45505</v>
+        <v>45467</v>
       </c>
       <c r="J38">
         <v>700</v>
@@ -2076,7 +2076,7 @@
         <v>4</v>
       </c>
       <c r="I39" s="1">
-        <v>45536</v>
+        <v>45482</v>
       </c>
       <c r="J39">
         <v>700</v>
@@ -2112,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="I40" s="1">
-        <v>45352</v>
+        <v>45497</v>
       </c>
       <c r="J40">
         <v>700</v>
@@ -2148,7 +2148,7 @@
         <v>4</v>
       </c>
       <c r="I41" s="1">
-        <v>45611</v>
+        <v>45512</v>
       </c>
       <c r="J41">
         <v>700</v>
@@ -2218,7 +2218,7 @@
         <v>4</v>
       </c>
       <c r="I43" s="1">
-        <v>45527</v>
+        <v>45542</v>
       </c>
       <c r="J43">
         <v>1000</v>
@@ -2253,47 +2253,12 @@
         <v>4</v>
       </c>
       <c r="I44" s="1">
-        <v>45527</v>
+        <v>45557</v>
       </c>
       <c r="J44">
         <v>1000</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="1">
-        <v>35246</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" t="s">
-        <v>78</v>
-      </c>
-      <c r="F45">
-        <v>9</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45" s="1">
-        <v>45527</v>
-      </c>
-      <c r="J45">
-        <v>1000</v>
-      </c>
-      <c r="K45" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2302,7 +2267,6 @@
     <hyperlink ref="G42" r:id="rId1" xr:uid="{4C6C4023-18A3-4E08-AC20-6C0C0B33A2E7}"/>
     <hyperlink ref="G43" r:id="rId2" xr:uid="{DA997B6D-FF52-492B-8691-B54A7BD54877}"/>
     <hyperlink ref="G44" r:id="rId3" xr:uid="{21FE4545-4380-4D6A-B328-F1212E927FAA}"/>
-    <hyperlink ref="G45" r:id="rId4" xr:uid="{07107982-E17F-4069-9B65-DAAA69F86DC1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
